--- a/notebooks/BCKDHB/input/BCKDHB_MSUD1B_individuals.xlsx
+++ b/notebooks/BCKDHB/input/BCKDHB_MSUD1B_individuals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/BCKDHB/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40398ECC-DC69-3D4F-9E07-495D393CDAF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17DD0C90-684D-5E4E-B334-30DCE7568615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="10520" windowWidth="30240" windowHeight="16040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1400" yWindow="4140" windowWidth="30240" windowHeight="16040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="71">
   <si>
     <t>PMID</t>
   </si>
@@ -230,6 +230,9 @@
   </si>
   <si>
     <t>U</t>
+  </si>
+  <si>
+    <t>proband EK</t>
   </si>
 </sst>
 </file>
@@ -609,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5:O5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -799,6 +802,9 @@
       </c>
       <c r="B3" t="s">
         <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>70</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
